--- a/config_11.2/act_042_xshb_config.xlsx
+++ b/config_11.2/act_042_xshb_config.xlsx
@@ -55,9 +55,6 @@
   </si>
   <si>
     <t>is_on|显示开关</t>
-  </si>
-  <si>
-    <t>携带金币20万</t>
   </si>
   <si>
     <t>actp_own_task_p_show_not</t>
@@ -175,6 +172,10 @@
       </rPr>
       <t>元奖励金</t>
     </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>携带金币2万</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -597,7 +598,7 @@
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -656,22 +657,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D2" s="4">
         <v>1000664</v>
       </c>
       <c r="E2" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="G2" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>14</v>
       </c>
       <c r="H2" s="4">
         <v>6</v>
@@ -679,7 +680,7 @@
       <c r="I2" s="14"/>
       <c r="J2" s="14"/>
       <c r="K2" s="15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L2" s="1">
         <v>1</v>
@@ -690,32 +691,32 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>16</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>17</v>
       </c>
       <c r="D3" s="4">
         <v>1000663</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F3" s="6"/>
       <c r="G3" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H3" s="4">
         <v>5</v>
       </c>
       <c r="I3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="16" t="s">
-        <v>21</v>
-      </c>
       <c r="K3" s="15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L3" s="1">
         <v>1</v>
@@ -726,32 +727,32 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>22</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>23</v>
       </c>
       <c r="D4" s="4">
         <v>1000662</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F4" s="6"/>
       <c r="G4" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H4" s="4">
         <v>4</v>
       </c>
       <c r="I4" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="J4" s="16" t="s">
+      <c r="K4" s="15" t="s">
         <v>27</v>
-      </c>
-      <c r="K4" s="15" t="s">
-        <v>28</v>
       </c>
       <c r="L4" s="1">
         <v>1</v>
@@ -762,32 +763,32 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>16</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>17</v>
       </c>
       <c r="D5" s="4">
         <v>1000661</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H5" s="4">
         <v>3</v>
       </c>
       <c r="I5" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="J5" s="16" t="s">
-        <v>31</v>
-      </c>
       <c r="K5" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L5" s="1">
         <v>1</v>
@@ -798,32 +799,32 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>32</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>33</v>
       </c>
       <c r="D6" s="4">
         <v>1000660</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F6" s="6"/>
       <c r="G6" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H6" s="4">
         <v>2</v>
       </c>
       <c r="I6" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="J6" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="J6" s="16" t="s">
-        <v>36</v>
-      </c>
       <c r="K6" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L6" s="1">
         <v>1</v>
@@ -834,32 +835,32 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>37</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>38</v>
       </c>
       <c r="D7" s="4">
         <v>1000659</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F7" s="6"/>
       <c r="G7" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H7" s="4">
         <v>1</v>
       </c>
       <c r="I7" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="J7" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="J7" s="16" t="s">
-        <v>41</v>
-      </c>
       <c r="K7" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L7" s="1">
         <v>1</v>
